--- a/Team-Data/2014-15/1-17-2014-15.xlsx
+++ b/Team-Data/2014-15/1-17-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,25 +733,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.805</v>
+        <v>0.8</v>
       </c>
       <c r="H2" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I2" t="n">
         <v>37.9</v>
       </c>
       <c r="J2" t="n">
-        <v>80.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K2" t="n">
         <v>0.471</v>
@@ -696,13 +763,13 @@
         <v>24.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.389</v>
+        <v>0.388</v>
       </c>
       <c r="O2" t="n">
         <v>17.8</v>
       </c>
       <c r="P2" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q2" t="n">
         <v>0.772</v>
@@ -717,16 +784,16 @@
         <v>41</v>
       </c>
       <c r="U2" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="V2" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W2" t="n">
         <v>9</v>
       </c>
       <c r="X2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y2" t="n">
         <v>4.8</v>
@@ -738,13 +805,13 @@
         <v>21.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.3</v>
+        <v>103.2</v>
       </c>
       <c r="AC2" t="n">
         <v>6.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -768,28 +835,28 @@
         <v>4</v>
       </c>
       <c r="AL2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM2" t="n">
         <v>9</v>
       </c>
       <c r="AN2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO2" t="n">
         <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
       </c>
       <c r="AS2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT2" t="n">
         <v>25</v>
@@ -798,13 +865,13 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY2" t="n">
         <v>14</v>
@@ -816,7 +883,7 @@
         <v>10</v>
       </c>
       <c r="BB2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC2" t="n">
         <v>2</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-17-2014-15</t>
+          <t>2015-01-17</t>
         </is>
       </c>
     </row>
@@ -956,7 +1023,7 @@
         <v>13</v>
       </c>
       <c r="AN3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO3" t="n">
         <v>28</v>
@@ -965,7 +1032,7 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
         <v>17</v>
@@ -974,22 +1041,22 @@
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AW3" t="n">
         <v>10</v>
       </c>
       <c r="AX3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AY3" t="n">
         <v>24</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>25</v>
       </c>
       <c r="AZ3" t="n">
         <v>21</v>
@@ -998,7 +1065,7 @@
         <v>30</v>
       </c>
       <c r="BB3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC3" t="n">
         <v>20</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-17-2014-15</t>
+          <t>2015-01-17</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" t="n">
-        <v>0.415</v>
+        <v>0.425</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1051,46 +1118,46 @@
         <v>81.09999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L4" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M4" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="N4" t="n">
-        <v>0.321</v>
+        <v>0.323</v>
       </c>
       <c r="O4" t="n">
         <v>16.5</v>
       </c>
       <c r="P4" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R4" t="n">
         <v>9.6</v>
       </c>
       <c r="S4" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T4" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U4" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V4" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W4" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y4" t="n">
         <v>4.6</v>
@@ -1099,16 +1166,16 @@
         <v>20.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.59999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.2</v>
+        <v>-2.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
@@ -1120,7 +1187,7 @@
         <v>19</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
         <v>25</v>
@@ -1129,7 +1196,7 @@
         <v>25</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>24</v>
@@ -1138,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="AN4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO4" t="n">
         <v>22</v>
@@ -1147,28 +1214,28 @@
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AR4" t="n">
         <v>26</v>
       </c>
       <c r="AS4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT4" t="n">
         <v>20</v>
       </c>
       <c r="AU4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AW4" t="n">
         <v>21</v>
       </c>
       <c r="AX4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY4" t="n">
         <v>10</v>
@@ -1177,13 +1244,13 @@
         <v>14</v>
       </c>
       <c r="BA4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-17-2014-15</t>
+          <t>2015-01-17</t>
         </is>
       </c>
     </row>
@@ -1212,61 +1279,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="n">
         <v>25</v>
       </c>
       <c r="G5" t="n">
-        <v>0.39</v>
+        <v>0.375</v>
       </c>
       <c r="H5" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="I5" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="J5" t="n">
-        <v>85</v>
+        <v>84.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.426</v>
+        <v>0.429</v>
       </c>
       <c r="L5" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M5" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.309</v>
+        <v>0.313</v>
       </c>
       <c r="O5" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P5" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.738</v>
+        <v>0.741</v>
       </c>
       <c r="R5" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S5" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="T5" t="n">
-        <v>43.6</v>
+        <v>43.3</v>
       </c>
       <c r="U5" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V5" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="W5" t="n">
         <v>5.7</v>
@@ -1275,25 +1342,25 @@
         <v>5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AA5" t="n">
         <v>21.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.7</v>
+        <v>-3</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>21</v>
@@ -1302,7 +1369,7 @@
         <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI5" t="n">
         <v>24</v>
@@ -1311,7 +1378,7 @@
         <v>11</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL5" t="n">
         <v>27</v>
@@ -1329,7 +1396,7 @@
         <v>14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR5" t="n">
         <v>23</v>
@@ -1338,10 +1405,10 @@
         <v>9</v>
       </c>
       <c r="AT5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AU5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1353,16 +1420,16 @@
         <v>10</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA5" t="n">
         <v>7</v>
       </c>
       <c r="BB5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC5" t="n">
         <v>23</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-17-2014-15</t>
+          <t>2015-01-17</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" t="n">
         <v>27</v>
       </c>
       <c r="F6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="n">
-        <v>0.643</v>
+        <v>0.659</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
@@ -1415,37 +1482,37 @@
         <v>82.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L6" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M6" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="N6" t="n">
         <v>0.363</v>
       </c>
       <c r="O6" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="P6" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.779</v>
+        <v>0.778</v>
       </c>
       <c r="R6" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S6" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="T6" t="n">
         <v>45.4</v>
       </c>
       <c r="U6" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V6" t="n">
         <v>14.3</v>
@@ -1454,34 +1521,34 @@
         <v>6.3</v>
       </c>
       <c r="X6" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z6" t="n">
         <v>18.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
         <v>7</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH6" t="n">
         <v>13</v>
@@ -1493,7 +1560,7 @@
         <v>18</v>
       </c>
       <c r="AK6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL6" t="n">
         <v>12</v>
@@ -1511,22 +1578,22 @@
         <v>2</v>
       </c>
       <c r="AQ6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR6" t="n">
         <v>6</v>
       </c>
       <c r="AS6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AU6" t="n">
         <v>12</v>
       </c>
       <c r="AV6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW6" t="n">
         <v>28</v>
@@ -1535,10 +1602,10 @@
         <v>1</v>
       </c>
       <c r="AY6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA6" t="n">
         <v>2</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-17-2014-15</t>
+          <t>2015-01-17</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1666,7 +1733,7 @@
         <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
         <v>20</v>
@@ -1690,13 +1757,13 @@
         <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS7" t="n">
         <v>27</v>
@@ -1708,7 +1775,7 @@
         <v>13</v>
       </c>
       <c r="AV7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW7" t="n">
         <v>22</v>
@@ -1729,7 +1796,7 @@
         <v>16</v>
       </c>
       <c r="BC7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-17-2014-15</t>
+          <t>2015-01-17</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" t="n">
         <v>28</v>
       </c>
       <c r="F8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H8" t="n">
         <v>48.6</v>
@@ -1776,7 +1843,7 @@
         <v>40.9</v>
       </c>
       <c r="J8" t="n">
-        <v>87</v>
+        <v>86.8</v>
       </c>
       <c r="K8" t="n">
         <v>0.471</v>
@@ -1785,34 +1852,34 @@
         <v>9.5</v>
       </c>
       <c r="M8" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O8" t="n">
         <v>17.3</v>
       </c>
       <c r="P8" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R8" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S8" t="n">
-        <v>31.8</v>
+        <v>31.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.6</v>
+        <v>42.4</v>
       </c>
       <c r="U8" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="V8" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="W8" t="n">
         <v>8</v>
@@ -1821,34 +1888,34 @@
         <v>4.9</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z8" t="n">
         <v>20.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>108.7</v>
+        <v>108.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1866,22 +1933,22 @@
         <v>3</v>
       </c>
       <c r="AN8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
         <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
         <v>16</v>
       </c>
       <c r="AS8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT8" t="n">
         <v>17</v>
@@ -1896,7 +1963,7 @@
         <v>11</v>
       </c>
       <c r="AX8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-17-2014-15</t>
+          <t>2015-01-17</t>
         </is>
       </c>
     </row>
@@ -1940,34 +2007,34 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" t="n">
         <v>18</v>
       </c>
       <c r="F9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" t="n">
-        <v>0.45</v>
+        <v>0.462</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J9" t="n">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L9" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M9" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="N9" t="n">
         <v>0.321</v>
@@ -1979,25 +2046,25 @@
         <v>25.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.739</v>
+        <v>0.736</v>
       </c>
       <c r="R9" t="n">
         <v>12.6</v>
       </c>
       <c r="S9" t="n">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="T9" t="n">
-        <v>46</v>
+        <v>46.2</v>
       </c>
       <c r="U9" t="n">
         <v>21.3</v>
       </c>
       <c r="V9" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W9" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X9" t="n">
         <v>4.8</v>
@@ -2009,19 +2076,19 @@
         <v>23.7</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>-1.5</v>
+        <v>-1.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>17</v>
@@ -2030,7 +2097,7 @@
         <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI9" t="n">
         <v>13</v>
@@ -2039,7 +2106,7 @@
         <v>4</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
         <v>13</v>
@@ -2057,22 +2124,22 @@
         <v>3</v>
       </c>
       <c r="AQ9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
         <v>2</v>
       </c>
       <c r="AS9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT9" t="n">
         <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AW9" t="n">
         <v>24</v>
@@ -2090,7 +2157,7 @@
         <v>9</v>
       </c>
       <c r="BB9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BC9" t="n">
         <v>17</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-17-2014-15</t>
+          <t>2015-01-17</t>
         </is>
       </c>
     </row>
@@ -2122,64 +2189,64 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="n">
         <v>25</v>
       </c>
       <c r="G10" t="n">
-        <v>0.39</v>
+        <v>0.375</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J10" t="n">
         <v>85.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.426</v>
+        <v>0.425</v>
       </c>
       <c r="L10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.35</v>
+        <v>0.347</v>
       </c>
       <c r="O10" t="n">
         <v>16</v>
       </c>
       <c r="P10" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.699</v>
+        <v>0.696</v>
       </c>
       <c r="R10" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S10" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T10" t="n">
-        <v>45.5</v>
+        <v>45.4</v>
       </c>
       <c r="U10" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V10" t="n">
         <v>13.4</v>
       </c>
       <c r="W10" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="X10" t="n">
         <v>4.6</v>
@@ -2188,22 +2255,22 @@
         <v>4.9</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>97.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.7</v>
+        <v>-2.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
         <v>21</v>
@@ -2212,10 +2279,10 @@
         <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ10" t="n">
         <v>6</v>
@@ -2230,7 +2297,7 @@
         <v>8</v>
       </c>
       <c r="AN10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
         <v>25</v>
@@ -2257,16 +2324,16 @@
         <v>8</v>
       </c>
       <c r="AW10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY10" t="n">
         <v>17</v>
       </c>
       <c r="AZ10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA10" t="n">
         <v>23</v>
@@ -2275,7 +2342,7 @@
         <v>22</v>
       </c>
       <c r="BC10" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-17-2014-15</t>
+          <t>2015-01-17</t>
         </is>
       </c>
     </row>
@@ -2304,46 +2371,46 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" t="n">
         <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>0.842</v>
+        <v>0.838</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
       </c>
       <c r="I11" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="J11" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K11" t="n">
-        <v>0.485</v>
+        <v>0.483</v>
       </c>
       <c r="L11" t="n">
         <v>10.1</v>
       </c>
       <c r="M11" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="N11" t="n">
         <v>0.385</v>
       </c>
       <c r="O11" t="n">
-        <v>16.9</v>
+        <v>16.7</v>
       </c>
       <c r="P11" t="n">
-        <v>21.8</v>
+        <v>21.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.775</v>
+        <v>0.78</v>
       </c>
       <c r="R11" t="n">
         <v>10</v>
@@ -2352,10 +2419,10 @@
         <v>34.5</v>
       </c>
       <c r="T11" t="n">
-        <v>44.6</v>
+        <v>44.4</v>
       </c>
       <c r="U11" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="V11" t="n">
         <v>15.1</v>
@@ -2364,7 +2431,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="X11" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="Y11" t="n">
         <v>3.6</v>
@@ -2373,16 +2440,16 @@
         <v>19.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>110</v>
+        <v>109.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.9</v>
+        <v>10.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE11" t="n">
         <v>2</v>
@@ -2400,13 +2467,13 @@
         <v>1</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK11" t="n">
         <v>1</v>
       </c>
       <c r="AL11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM11" t="n">
         <v>6</v>
@@ -2415,13 +2482,13 @@
         <v>3</v>
       </c>
       <c r="AO11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP11" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AR11" t="n">
         <v>24</v>
@@ -2436,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="AV11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW11" t="n">
         <v>4</v>
@@ -2451,7 +2518,7 @@
         <v>11</v>
       </c>
       <c r="BA11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-17-2014-15</t>
+          <t>2015-01-17</t>
         </is>
       </c>
     </row>
@@ -2489,58 +2556,58 @@
         <v>40</v>
       </c>
       <c r="E12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" t="n">
-        <v>0.675</v>
+        <v>0.7</v>
       </c>
       <c r="H12" t="n">
         <v>48.5</v>
       </c>
       <c r="I12" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J12" t="n">
-        <v>83.5</v>
+        <v>83.2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L12" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="M12" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.35</v>
+        <v>0.353</v>
       </c>
       <c r="O12" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="P12" t="n">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.714</v>
+        <v>0.711</v>
       </c>
       <c r="R12" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S12" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="T12" t="n">
-        <v>43.4</v>
+        <v>43.6</v>
       </c>
       <c r="U12" t="n">
         <v>21</v>
       </c>
       <c r="V12" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="W12" t="n">
         <v>9.800000000000001</v>
@@ -2549,43 +2616,43 @@
         <v>4.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH12" t="n">
         <v>12</v>
       </c>
       <c r="AI12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2594,25 +2661,25 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS12" t="n">
         <v>22</v>
       </c>
       <c r="AT12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU12" t="n">
         <v>19</v>
@@ -2624,22 +2691,22 @@
         <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB12" t="n">
         <v>9</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-17-2014-15</t>
+          <t>2015-01-17</t>
         </is>
       </c>
     </row>
@@ -2668,67 +2735,67 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
       </c>
       <c r="F13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" t="n">
-        <v>0.357</v>
+        <v>0.366</v>
       </c>
       <c r="H13" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J13" t="n">
         <v>84.09999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.427</v>
+        <v>0.429</v>
       </c>
       <c r="L13" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M13" t="n">
         <v>20.7</v>
       </c>
       <c r="N13" t="n">
-        <v>0.332</v>
+        <v>0.338</v>
       </c>
       <c r="O13" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="P13" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.749</v>
+        <v>0.75</v>
       </c>
       <c r="R13" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S13" t="n">
-        <v>34.4</v>
+        <v>34</v>
       </c>
       <c r="T13" t="n">
-        <v>45.5</v>
+        <v>45.2</v>
       </c>
       <c r="U13" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V13" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W13" t="n">
         <v>5.9</v>
       </c>
       <c r="X13" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y13" t="n">
         <v>5.1</v>
@@ -2737,76 +2804,76 @@
         <v>21</v>
       </c>
       <c r="AA13" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG13" t="n">
         <v>23</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
         <v>26</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AM13" t="n">
         <v>19</v>
       </c>
       <c r="AN13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO13" t="n">
         <v>24</v>
       </c>
       <c r="AP13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ13" t="n">
         <v>19</v>
       </c>
       <c r="AR13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU13" t="n">
         <v>20</v>
       </c>
       <c r="AV13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AW13" t="n">
         <v>29</v>
       </c>
       <c r="AX13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY13" t="n">
         <v>18</v>
@@ -2815,13 +2882,13 @@
         <v>17</v>
       </c>
       <c r="BA13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-17-2014-15</t>
+          <t>2015-01-17</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" t="n">
         <v>14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.659</v>
+        <v>0.65</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.9</v>
+        <v>38.7</v>
       </c>
       <c r="J14" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K14" t="n">
         <v>0.472</v>
@@ -2880,34 +2947,34 @@
         <v>26.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O14" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="P14" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.75</v>
+        <v>0.753</v>
       </c>
       <c r="R14" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="S14" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="T14" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="U14" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="V14" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="W14" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X14" t="n">
         <v>4.6</v>
@@ -2919,25 +2986,25 @@
         <v>20.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.9</v>
+        <v>106.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF14" t="n">
         <v>9</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
         <v>26</v>
@@ -2964,28 +3031,28 @@
         <v>5</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AR14" t="n">
         <v>27</v>
       </c>
       <c r="AS14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT14" t="n">
         <v>26</v>
       </c>
       <c r="AU14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV14" t="n">
         <v>3</v>
       </c>
       <c r="AW14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX14" t="n">
         <v>16</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-17-2014-15</t>
+          <t>2015-01-17</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" t="n">
         <v>12</v>
       </c>
       <c r="F15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3</v>
+        <v>0.293</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>37.7</v>
+        <v>37.5</v>
       </c>
       <c r="J15" t="n">
-        <v>85.90000000000001</v>
+        <v>85.7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.439</v>
+        <v>0.437</v>
       </c>
       <c r="L15" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M15" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="N15" t="n">
         <v>0.351</v>
       </c>
       <c r="O15" t="n">
-        <v>18.2</v>
+        <v>18.5</v>
       </c>
       <c r="P15" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.744</v>
+        <v>0.746</v>
       </c>
       <c r="R15" t="n">
         <v>11.5</v>
       </c>
       <c r="S15" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="T15" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U15" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V15" t="n">
         <v>12.7</v>
@@ -3092,25 +3159,25 @@
         <v>7.3</v>
       </c>
       <c r="X15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.7</v>
+        <v>100.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.8</v>
+        <v>-6.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,19 +3189,19 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
         <v>7</v>
       </c>
       <c r="AK15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL15" t="n">
         <v>23</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>20</v>
       </c>
       <c r="AM15" t="n">
         <v>22</v>
@@ -3143,16 +3210,16 @@
         <v>15</v>
       </c>
       <c r="AO15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS15" t="n">
         <v>21</v>
@@ -3161,25 +3228,25 @@
         <v>14</v>
       </c>
       <c r="AU15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV15" t="n">
         <v>5</v>
       </c>
       <c r="AW15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA15" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BB15" t="n">
         <v>17</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-17-2014-15</t>
+          <t>2015-01-17</t>
         </is>
       </c>
     </row>
@@ -3214,64 +3281,64 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" t="n">
         <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>0.725</v>
+        <v>0.718</v>
       </c>
       <c r="H16" t="n">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="I16" t="n">
         <v>39</v>
       </c>
       <c r="J16" t="n">
-        <v>83.8</v>
+        <v>84</v>
       </c>
       <c r="K16" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L16" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M16" t="n">
         <v>16</v>
       </c>
       <c r="N16" t="n">
-        <v>0.354</v>
+        <v>0.35</v>
       </c>
       <c r="O16" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P16" t="n">
         <v>23.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.771</v>
+        <v>0.774</v>
       </c>
       <c r="R16" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S16" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T16" t="n">
-        <v>42.7</v>
+        <v>42.5</v>
       </c>
       <c r="U16" t="n">
         <v>22.6</v>
       </c>
       <c r="V16" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W16" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X16" t="n">
         <v>4.3</v>
@@ -3280,10 +3347,10 @@
         <v>5.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB16" t="n">
         <v>101.9</v>
@@ -3292,13 +3359,13 @@
         <v>4.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
       </c>
       <c r="AF16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG16" t="n">
         <v>4</v>
@@ -3310,10 +3377,10 @@
         <v>6</v>
       </c>
       <c r="AJ16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL16" t="n">
         <v>28</v>
@@ -3322,22 +3389,22 @@
         <v>27</v>
       </c>
       <c r="AN16" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP16" t="n">
         <v>13</v>
       </c>
       <c r="AQ16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AR16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AT16" t="n">
         <v>16</v>
@@ -3367,7 +3434,7 @@
         <v>13</v>
       </c>
       <c r="BC16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-17-2014-15</t>
+          <t>2015-01-17</t>
         </is>
       </c>
     </row>
@@ -3474,16 +3541,16 @@
         <v>-3.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
         <v>29</v>
@@ -3504,16 +3571,16 @@
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO17" t="n">
         <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3528,7 +3595,7 @@
         <v>25</v>
       </c>
       <c r="AV17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW17" t="n">
         <v>8</v>
@@ -3543,7 +3610,7 @@
         <v>12</v>
       </c>
       <c r="BA17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-17-2014-15</t>
+          <t>2015-01-17</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>1.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
         <v>13</v>
@@ -3671,13 +3738,13 @@
         <v>7</v>
       </c>
       <c r="AI18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL18" t="n">
         <v>22</v>
@@ -3692,13 +3759,13 @@
         <v>23</v>
       </c>
       <c r="AP18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ18" t="n">
         <v>7</v>
       </c>
       <c r="AR18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS18" t="n">
         <v>23</v>
@@ -3725,7 +3792,7 @@
         <v>27</v>
       </c>
       <c r="BA18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB18" t="n">
         <v>21</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-17-2014-15</t>
+          <t>2015-01-17</t>
         </is>
       </c>
     </row>
@@ -3760,106 +3827,106 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
         <v>32</v>
       </c>
       <c r="G19" t="n">
-        <v>0.179</v>
+        <v>0.158</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J19" t="n">
-        <v>85.5</v>
+        <v>85.7</v>
       </c>
       <c r="K19" t="n">
-        <v>0.439</v>
+        <v>0.437</v>
       </c>
       <c r="L19" t="n">
         <v>5.2</v>
       </c>
       <c r="M19" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="N19" t="n">
-        <v>0.344</v>
+        <v>0.341</v>
       </c>
       <c r="O19" t="n">
         <v>18.6</v>
       </c>
       <c r="P19" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.742</v>
+        <v>0.739</v>
       </c>
       <c r="R19" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S19" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="T19" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U19" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V19" t="n">
         <v>15.1</v>
       </c>
       <c r="W19" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X19" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y19" t="n">
         <v>5.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA19" t="n">
         <v>21.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.90000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-9.199999999999999</v>
+        <v>-9.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
       </c>
       <c r="AF19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG19" t="n">
         <v>29</v>
       </c>
       <c r="AH19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3874,10 +3941,10 @@
         <v>7</v>
       </c>
       <c r="AP19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ19" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AR19" t="n">
         <v>3</v>
@@ -3895,7 +3962,7 @@
         <v>21</v>
       </c>
       <c r="AW19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX19" t="n">
         <v>23</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-17-2014-15</t>
+          <t>2015-01-17</t>
         </is>
       </c>
     </row>
@@ -3942,103 +4009,103 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" t="n">
         <v>20</v>
       </c>
       <c r="G20" t="n">
-        <v>0.474</v>
+        <v>0.487</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J20" t="n">
-        <v>83.7</v>
+        <v>84.2</v>
       </c>
       <c r="K20" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M20" t="n">
         <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.345</v>
+        <v>0.342</v>
       </c>
       <c r="O20" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P20" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.768</v>
+        <v>0.758</v>
       </c>
       <c r="R20" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="S20" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T20" t="n">
-        <v>43.4</v>
+        <v>43.9</v>
       </c>
       <c r="U20" t="n">
         <v>21.3</v>
       </c>
       <c r="V20" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W20" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X20" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
         <v>100.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
         <v>14</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
         <v>11</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK20" t="n">
         <v>13</v>
@@ -4047,7 +4114,7 @@
         <v>25</v>
       </c>
       <c r="AM20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN20" t="n">
         <v>20</v>
@@ -4056,46 +4123,46 @@
         <v>14</v>
       </c>
       <c r="AP20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AR20" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AS20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AU20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV20" t="n">
         <v>7</v>
       </c>
       <c r="AW20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY20" t="n">
         <v>29</v>
       </c>
       <c r="AZ20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB20" t="n">
         <v>15</v>
       </c>
       <c r="BC20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-17-2014-15</t>
+          <t>2015-01-17</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-9.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4232,7 +4299,7 @@
         <v>20</v>
       </c>
       <c r="AN21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4241,10 +4308,10 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS21" t="n">
         <v>28</v>
@@ -4256,10 +4323,10 @@
         <v>17</v>
       </c>
       <c r="AV21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-17-2014-15</t>
+          <t>2015-01-17</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>0.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
@@ -4396,7 +4463,7 @@
         <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI22" t="n">
         <v>17</v>
@@ -4423,13 +4490,13 @@
         <v>12</v>
       </c>
       <c r="AQ22" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AR22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
         <v>1</v>
@@ -4444,16 +4511,16 @@
         <v>23</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ22" t="n">
         <v>29</v>
       </c>
       <c r="BA22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB22" t="n">
         <v>18</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-17-2014-15</t>
+          <t>2015-01-17</t>
         </is>
       </c>
     </row>
@@ -4488,34 +4555,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
       </c>
       <c r="F23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G23" t="n">
-        <v>0.357</v>
+        <v>0.349</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J23" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.456</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
         <v>7.1</v>
       </c>
       <c r="M23" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="N23" t="n">
         <v>0.368</v>
@@ -4527,55 +4594,55 @@
         <v>19.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.729</v>
+        <v>0.73</v>
       </c>
       <c r="R23" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T23" t="n">
-        <v>40.3</v>
+        <v>40.7</v>
       </c>
       <c r="U23" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V23" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W23" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X23" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA23" t="n">
         <v>18.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.09999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5</v>
+        <v>-5.3</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG23" t="n">
         <v>25</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>23</v>
       </c>
       <c r="AH23" t="n">
         <v>28</v>
@@ -4584,7 +4651,7 @@
         <v>18</v>
       </c>
       <c r="AJ23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK23" t="n">
         <v>14</v>
@@ -4593,7 +4660,7 @@
         <v>18</v>
       </c>
       <c r="AM23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN23" t="n">
         <v>7</v>
@@ -4620,7 +4687,7 @@
         <v>24</v>
       </c>
       <c r="AV23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW23" t="n">
         <v>17</v>
@@ -4629,16 +4696,16 @@
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-17-2014-15</t>
+          <t>2015-01-17</t>
         </is>
       </c>
     </row>
@@ -4670,61 +4737,61 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
       </c>
       <c r="F24" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2</v>
+        <v>0.205</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="J24" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.412</v>
+        <v>0.411</v>
       </c>
       <c r="L24" t="n">
         <v>7.1</v>
       </c>
       <c r="M24" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="N24" t="n">
-        <v>0.297</v>
+        <v>0.298</v>
       </c>
       <c r="O24" t="n">
-        <v>16.6</v>
+        <v>16.9</v>
       </c>
       <c r="P24" t="n">
-        <v>24.5</v>
+        <v>24.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.678</v>
+        <v>0.676</v>
       </c>
       <c r="R24" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S24" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T24" t="n">
         <v>41.9</v>
       </c>
       <c r="U24" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V24" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="W24" t="n">
         <v>10</v>
@@ -4736,19 +4803,19 @@
         <v>5.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB24" t="n">
         <v>90.40000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>-12.2</v>
+        <v>-12</v>
       </c>
       <c r="AD24" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4781,16 +4848,16 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS24" t="n">
         <v>26</v>
@@ -4799,7 +4866,7 @@
         <v>21</v>
       </c>
       <c r="AU24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4808,16 +4875,16 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ24" t="n">
         <v>23</v>
       </c>
       <c r="BA24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-17-2014-15</t>
+          <t>2015-01-17</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>2.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF25" t="n">
         <v>12</v>
@@ -4951,10 +5018,10 @@
         <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM25" t="n">
         <v>4</v>
@@ -4963,7 +5030,7 @@
         <v>10</v>
       </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP25" t="n">
         <v>23</v>
@@ -4975,13 +5042,13 @@
         <v>18</v>
       </c>
       <c r="AS25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT25" t="n">
         <v>18</v>
       </c>
       <c r="AU25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV25" t="n">
         <v>26</v>
@@ -4990,7 +5057,7 @@
         <v>7</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
         <v>6</v>
@@ -4999,7 +5066,7 @@
         <v>26</v>
       </c>
       <c r="BA25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB25" t="n">
         <v>4</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-17-2014-15</t>
+          <t>2015-01-17</t>
         </is>
       </c>
     </row>
@@ -5034,61 +5101,61 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" t="n">
         <v>30</v>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>0.732</v>
+        <v>0.75</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="J26" t="n">
-        <v>86.5</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L26" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="M26" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.372</v>
+        <v>0.373</v>
       </c>
       <c r="O26" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="P26" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.793</v>
+        <v>0.792</v>
       </c>
       <c r="R26" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S26" t="n">
-        <v>35</v>
+        <v>35.3</v>
       </c>
       <c r="T26" t="n">
-        <v>46</v>
+        <v>46.2</v>
       </c>
       <c r="U26" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V26" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W26" t="n">
         <v>6.6</v>
@@ -5106,13 +5173,13 @@
         <v>19.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>103.2</v>
+        <v>103.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
         <v>3</v>
@@ -5124,7 +5191,7 @@
         <v>3</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI26" t="n">
         <v>7</v>
@@ -5136,13 +5203,13 @@
         <v>18</v>
       </c>
       <c r="AL26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM26" t="n">
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
         <v>27</v>
@@ -5154,7 +5221,7 @@
         <v>2</v>
       </c>
       <c r="AR26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS26" t="n">
         <v>1</v>
@@ -5166,7 +5233,7 @@
         <v>9</v>
       </c>
       <c r="AV26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW26" t="n">
         <v>26</v>
@@ -5184,7 +5251,7 @@
         <v>25</v>
       </c>
       <c r="BB26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC26" t="n">
         <v>3</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-17-2014-15</t>
+          <t>2015-01-17</t>
         </is>
       </c>
     </row>
@@ -5216,25 +5283,25 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="H27" t="n">
         <v>48.8</v>
       </c>
       <c r="I27" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J27" t="n">
-        <v>80.3</v>
+        <v>80</v>
       </c>
       <c r="K27" t="n">
         <v>0.458</v>
@@ -5243,37 +5310,37 @@
         <v>5.3</v>
       </c>
       <c r="M27" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="N27" t="n">
-        <v>0.337</v>
+        <v>0.338</v>
       </c>
       <c r="O27" t="n">
         <v>23.2</v>
       </c>
       <c r="P27" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="R27" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="S27" t="n">
         <v>33.7</v>
       </c>
       <c r="T27" t="n">
-        <v>44.9</v>
+        <v>44.7</v>
       </c>
       <c r="U27" t="n">
         <v>19.8</v>
       </c>
       <c r="V27" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="W27" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X27" t="n">
         <v>3.9</v>
@@ -5282,19 +5349,19 @@
         <v>6.2</v>
       </c>
       <c r="Z27" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA27" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2</v>
+        <v>-1.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE27" t="n">
         <v>20</v>
@@ -5306,7 +5373,7 @@
         <v>20</v>
       </c>
       <c r="AH27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
@@ -5333,10 +5400,10 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AS27" t="n">
         <v>6</v>
@@ -5345,7 +5412,7 @@
         <v>7</v>
       </c>
       <c r="AU27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV27" t="n">
         <v>27</v>
@@ -5366,10 +5433,10 @@
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-17-2014-15</t>
+          <t>2015-01-17</t>
         </is>
       </c>
     </row>
@@ -5398,67 +5465,67 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="H28" t="n">
         <v>49.1</v>
       </c>
       <c r="I28" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J28" t="n">
-        <v>83.5</v>
+        <v>83.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.369</v>
+        <v>0.373</v>
       </c>
       <c r="O28" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P28" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="R28" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="T28" t="n">
-        <v>43.8</v>
+        <v>43.6</v>
       </c>
       <c r="U28" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="V28" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W28" t="n">
         <v>7.5</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.7</v>
@@ -5470,13 +5537,13 @@
         <v>20.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="AC28" t="n">
         <v>3.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>11</v>
@@ -5488,25 +5555,25 @@
         <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI28" t="n">
         <v>10</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
         <v>15</v>
       </c>
       <c r="AN28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
         <v>20</v>
@@ -5515,7 +5582,7 @@
         <v>20</v>
       </c>
       <c r="AQ28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR28" t="n">
         <v>25</v>
@@ -5524,34 +5591,34 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AW28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX28" t="n">
         <v>7</v>
       </c>
       <c r="AY28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ28" t="n">
         <v>10</v>
       </c>
       <c r="BA28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BB28" t="n">
         <v>12</v>
       </c>
       <c r="BC28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-17-2014-15</t>
+          <t>2015-01-17</t>
         </is>
       </c>
     </row>
@@ -5658,10 +5725,10 @@
         <v>5.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF29" t="n">
         <v>6</v>
@@ -5697,7 +5764,7 @@
         <v>6</v>
       </c>
       <c r="AQ29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR29" t="n">
         <v>11</v>
@@ -5709,19 +5776,19 @@
         <v>22</v>
       </c>
       <c r="AU29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV29" t="n">
         <v>4</v>
       </c>
       <c r="AW29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX29" t="n">
         <v>21</v>
       </c>
       <c r="AY29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-17-2014-15</t>
+          <t>2015-01-17</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-3</v>
       </c>
       <c r="AD30" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE30" t="n">
         <v>25</v>
@@ -5849,7 +5916,7 @@
         <v>24</v>
       </c>
       <c r="AG30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH30" t="n">
         <v>29</v>
@@ -5870,19 +5937,19 @@
         <v>18</v>
       </c>
       <c r="AN30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO30" t="n">
         <v>13</v>
       </c>
       <c r="AP30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ30" t="n">
         <v>17</v>
       </c>
       <c r="AR30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS30" t="n">
         <v>24</v>
@@ -5900,7 +5967,7 @@
         <v>25</v>
       </c>
       <c r="AX30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY30" t="n">
         <v>11</v>
@@ -5915,7 +5982,7 @@
         <v>23</v>
       </c>
       <c r="BC30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-17-2014-15</t>
+          <t>2015-01-17</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31" t="n">
         <v>13</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.675</v>
       </c>
       <c r="H31" t="n">
         <v>48.4</v>
       </c>
       <c r="I31" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="J31" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L31" t="n">
         <v>6</v>
@@ -5974,25 +6041,25 @@
         <v>15.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.386</v>
+        <v>0.388</v>
       </c>
       <c r="O31" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="P31" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.738</v>
+        <v>0.745</v>
       </c>
       <c r="R31" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S31" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T31" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="U31" t="n">
         <v>24.9</v>
@@ -6004,40 +6071,40 @@
         <v>7.6</v>
       </c>
       <c r="X31" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="AA31" t="n">
         <v>20.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF31" t="n">
         <v>6</v>
       </c>
       <c r="AG31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ31" t="n">
         <v>20</v>
@@ -6052,22 +6119,22 @@
         <v>29</v>
       </c>
       <c r="AN31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO31" t="n">
         <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ31" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AR31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS31" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AT31" t="n">
         <v>15</v>
@@ -6076,22 +6143,22 @@
         <v>4</v>
       </c>
       <c r="AV31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX31" t="n">
         <v>9</v>
       </c>
       <c r="AY31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ31" t="n">
         <v>18</v>
       </c>
       <c r="BA31" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BB31" t="n">
         <v>19</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-17-2014-15</t>
+          <t>2015-01-17</t>
         </is>
       </c>
     </row>
